--- a/inst/shiny/WPROACM/XLSX/Republic_of_Korea_built_in_data.xlsx
+++ b/inst/shiny/WPROACM/XLSX/Republic_of_Korea_built_in_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/handcock/Build/WPROACM/inst/shiny/WPROACM/XLSX/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64008A5-3270-8849-9293-F86D09BAF579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="760" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="4920" yWindow="760" windowWidth="43900" windowHeight="24560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -12,26 +18,20 @@
     <sheet name="Region1" sheetId="2" r:id="rId3"/>
     <sheet name="Region2 " sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="31">
   <si>
     <t>AGE GROUP</t>
   </si>
@@ -160,15 +160,18 @@
      - For countries using non-ISO week number format, indicate number of days for specific weeks.</t>
     </r>
   </si>
+  <si>
+    <t>START</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ###\ ##0\ ;@\ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,14 +542,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,28 +568,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -599,11 +580,35 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,15 +912,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:A12"/>
@@ -924,41 +929,41 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="118.33203125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="118.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="35" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" thickBot="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:1" ht="19" thickBot="1">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" thickBot="1">
-      <c r="A2" s="39"/>
-    </row>
-    <row r="3" spans="1:1" ht="17" thickBot="1">
-      <c r="A3" s="40" t="s">
+    <row r="2" spans="1:1" ht="18" thickBot="1">
+      <c r="A2" s="38"/>
+    </row>
+    <row r="3" spans="1:1" ht="19" thickBot="1">
+      <c r="A3" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="49" thickBot="1">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:1" ht="55" thickBot="1">
+      <c r="A4" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17" thickBot="1">
-      <c r="A5" s="42"/>
-    </row>
-    <row r="6" spans="1:1" ht="17" thickBot="1">
-      <c r="A6" s="43" t="s">
+    <row r="5" spans="1:1" ht="18" thickBot="1">
+      <c r="A5" s="41"/>
+    </row>
+    <row r="6" spans="1:1" ht="19" thickBot="1">
+      <c r="A6" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="337" thickBot="1">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:1" ht="378" thickBot="1">
+      <c r="A7" s="43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -988,14 +993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="BJ12" sqref="BJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
@@ -1003,114 +1008,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="49" t="s">
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="50" t="s">
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="51" t="s">
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
     </row>
     <row r="2" spans="1:86">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="34">
         <v>2015</v>
       </c>
@@ -1365,110 +1370,110 @@
       </c>
     </row>
     <row r="3" spans="1:86" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="48" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="49" t="s">
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="50" t="s">
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="44"/>
+      <c r="BV3" s="44"/>
+      <c r="BW3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="51"/>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="51"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="51"/>
-      <c r="CF3" s="51"/>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="51"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="50"/>
+      <c r="CD3" s="50"/>
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
     </row>
     <row r="4" spans="1:86" s="9" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -1723,8 +1728,8 @@
       </c>
     </row>
     <row r="5" spans="1:86" s="9" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
@@ -1979,7 +1984,7 @@
       </c>
     </row>
     <row r="6" spans="1:86">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -2209,7 +2214,7 @@
       <c r="CH6" s="33"/>
     </row>
     <row r="7" spans="1:86">
-      <c r="A7" s="54"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -2299,7 +2304,7 @@
       <c r="CH7" s="33"/>
     </row>
     <row r="8" spans="1:86">
-      <c r="A8" s="55"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -2389,7 +2394,7 @@
       <c r="CH8" s="33"/>
     </row>
     <row r="9" spans="1:86">
-      <c r="A9" s="53"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -2479,7 +2484,7 @@
       <c r="CH9" s="33"/>
     </row>
     <row r="10" spans="1:86">
-      <c r="A10" s="54"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -2569,7 +2574,7 @@
       <c r="CH10" s="33"/>
     </row>
     <row r="11" spans="1:86">
-      <c r="A11" s="55"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -2659,7 +2664,7 @@
       <c r="CH11" s="33"/>
     </row>
     <row r="12" spans="1:86">
-      <c r="A12" s="53"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -2749,7 +2754,7 @@
       <c r="CH12" s="33"/>
     </row>
     <row r="13" spans="1:86">
-      <c r="A13" s="54"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -2839,7 +2844,7 @@
       <c r="CH13" s="33"/>
     </row>
     <row r="14" spans="1:86">
-      <c r="A14" s="55"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2934,7 @@
       <c r="CH14" s="33"/>
     </row>
     <row r="15" spans="1:86">
-      <c r="A15" s="53"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -3019,7 +3024,7 @@
       <c r="CH15" s="33"/>
     </row>
     <row r="16" spans="1:86">
-      <c r="A16" s="54"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -3109,7 +3114,7 @@
       <c r="CH16" s="33"/>
     </row>
     <row r="17" spans="1:86">
-      <c r="A17" s="55"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -3199,7 +3204,7 @@
       <c r="CH17" s="33"/>
     </row>
     <row r="18" spans="1:86">
-      <c r="A18" s="53"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -3289,7 +3294,7 @@
       <c r="CH18" s="33"/>
     </row>
     <row r="19" spans="1:86">
-      <c r="A19" s="54"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -3379,7 +3384,7 @@
       <c r="CH19" s="33"/>
     </row>
     <row r="20" spans="1:86">
-      <c r="A20" s="55"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -3469,7 +3474,7 @@
       <c r="CH20" s="33"/>
     </row>
     <row r="21" spans="1:86">
-      <c r="A21" s="53"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -3559,7 +3564,7 @@
       <c r="CH21" s="33"/>
     </row>
     <row r="22" spans="1:86">
-      <c r="A22" s="54"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -3649,7 +3654,7 @@
       <c r="CH22" s="33"/>
     </row>
     <row r="23" spans="1:86">
-      <c r="A23" s="55"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -3739,7 +3744,7 @@
       <c r="CH23" s="33"/>
     </row>
     <row r="24" spans="1:86">
-      <c r="A24" s="53"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -3829,7 +3834,7 @@
       <c r="CH24" s="33"/>
     </row>
     <row r="25" spans="1:86">
-      <c r="A25" s="54"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -3919,7 +3924,7 @@
       <c r="CH25" s="33"/>
     </row>
     <row r="26" spans="1:86">
-      <c r="A26" s="55"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -4009,7 +4014,7 @@
       <c r="CH26" s="33"/>
     </row>
     <row r="27" spans="1:86">
-      <c r="A27" s="53"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -4099,7 +4104,7 @@
       <c r="CH27" s="33"/>
     </row>
     <row r="28" spans="1:86">
-      <c r="A28" s="54"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -4189,7 +4194,7 @@
       <c r="CH28" s="33"/>
     </row>
     <row r="29" spans="1:86">
-      <c r="A29" s="55"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -4279,7 +4284,7 @@
       <c r="CH29" s="33"/>
     </row>
     <row r="30" spans="1:86">
-      <c r="A30" s="53"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -4369,7 +4374,7 @@
       <c r="CH30" s="33"/>
     </row>
     <row r="31" spans="1:86">
-      <c r="A31" s="54"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -4459,7 +4464,7 @@
       <c r="CH31" s="33"/>
     </row>
     <row r="32" spans="1:86">
-      <c r="A32" s="55"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -4549,7 +4554,7 @@
       <c r="CH32" s="33"/>
     </row>
     <row r="33" spans="1:86">
-      <c r="A33" s="53"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -4639,7 +4644,7 @@
       <c r="CH33" s="33"/>
     </row>
     <row r="34" spans="1:86">
-      <c r="A34" s="54"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -4729,7 +4734,7 @@
       <c r="CH34" s="33"/>
     </row>
     <row r="35" spans="1:86">
-      <c r="A35" s="55"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -4819,7 +4824,7 @@
       <c r="CH35" s="33"/>
     </row>
     <row r="36" spans="1:86">
-      <c r="A36" s="53"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -4909,7 +4914,7 @@
       <c r="CH36" s="33"/>
     </row>
     <row r="37" spans="1:86">
-      <c r="A37" s="54"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -4999,7 +5004,7 @@
       <c r="CH37" s="33"/>
     </row>
     <row r="38" spans="1:86">
-      <c r="A38" s="55"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -5089,7 +5094,7 @@
       <c r="CH38" s="33"/>
     </row>
     <row r="39" spans="1:86">
-      <c r="A39" s="53"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -5179,7 +5184,7 @@
       <c r="CH39" s="33"/>
     </row>
     <row r="40" spans="1:86">
-      <c r="A40" s="54"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -5269,7 +5274,7 @@
       <c r="CH40" s="33"/>
     </row>
     <row r="41" spans="1:86">
-      <c r="A41" s="55"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -5359,7 +5364,7 @@
       <c r="CH41" s="33"/>
     </row>
     <row r="42" spans="1:86">
-      <c r="A42" s="53"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -5449,7 +5454,7 @@
       <c r="CH42" s="33"/>
     </row>
     <row r="43" spans="1:86">
-      <c r="A43" s="54"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -5539,7 +5544,7 @@
       <c r="CH43" s="33"/>
     </row>
     <row r="44" spans="1:86">
-      <c r="A44" s="55"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -5629,7 +5634,7 @@
       <c r="CH44" s="33"/>
     </row>
     <row r="45" spans="1:86">
-      <c r="A45" s="53"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -5719,7 +5724,7 @@
       <c r="CH45" s="33"/>
     </row>
     <row r="46" spans="1:86">
-      <c r="A46" s="54"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -5809,7 +5814,7 @@
       <c r="CH46" s="33"/>
     </row>
     <row r="47" spans="1:86">
-      <c r="A47" s="55"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -5899,7 +5904,7 @@
       <c r="CH47" s="33"/>
     </row>
     <row r="48" spans="1:86">
-      <c r="A48" s="53"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -5989,7 +5994,7 @@
       <c r="CH48" s="33"/>
     </row>
     <row r="49" spans="1:86">
-      <c r="A49" s="54"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -6079,7 +6084,7 @@
       <c r="CH49" s="33"/>
     </row>
     <row r="50" spans="1:86">
-      <c r="A50" s="55"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -6169,7 +6174,7 @@
       <c r="CH50" s="33"/>
     </row>
     <row r="51" spans="1:86">
-      <c r="A51" s="53"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -6259,7 +6264,7 @@
       <c r="CH51" s="33"/>
     </row>
     <row r="52" spans="1:86">
-      <c r="A52" s="54"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -6349,7 +6354,7 @@
       <c r="CH52" s="33"/>
     </row>
     <row r="53" spans="1:86">
-      <c r="A53" s="55"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -6439,7 +6444,7 @@
       <c r="CH53" s="33"/>
     </row>
     <row r="54" spans="1:86">
-      <c r="A54" s="53"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -6529,7 +6534,7 @@
       <c r="CH54" s="33"/>
     </row>
     <row r="55" spans="1:86">
-      <c r="A55" s="54"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -6619,7 +6624,7 @@
       <c r="CH55" s="33"/>
     </row>
     <row r="56" spans="1:86">
-      <c r="A56" s="55"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -6709,7 +6714,7 @@
       <c r="CH56" s="33"/>
     </row>
     <row r="57" spans="1:86">
-      <c r="A57" s="53"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -6799,7 +6804,7 @@
       <c r="CH57" s="33"/>
     </row>
     <row r="58" spans="1:86">
-      <c r="A58" s="54"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -6889,7 +6894,7 @@
       <c r="CH58" s="33"/>
     </row>
     <row r="59" spans="1:86">
-      <c r="A59" s="55"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -6979,7 +6984,7 @@
       <c r="CH59" s="33"/>
     </row>
     <row r="60" spans="1:86">
-      <c r="A60" s="53"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -7069,7 +7074,7 @@
       <c r="CH60" s="33"/>
     </row>
     <row r="61" spans="1:86">
-      <c r="A61" s="54"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -7159,7 +7164,7 @@
       <c r="CH61" s="33"/>
     </row>
     <row r="62" spans="1:86">
-      <c r="A62" s="55"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -8101,14 +8106,22 @@
       <c r="BS74"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
+  <mergeCells count="34">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="AY3:BJ3"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -8121,22 +8134,13 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="BW1:CH1"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8148,14 +8152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CH62"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
@@ -8163,114 +8167,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="49" t="s">
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="50" t="s">
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="51" t="s">
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
     </row>
     <row r="2" spans="1:86">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="34">
         <v>2015</v>
       </c>
@@ -8525,110 +8529,110 @@
       </c>
     </row>
     <row r="3" spans="1:86" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="48" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="49" t="s">
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="50" t="s">
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51" t="s">
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="49"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="51"/>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="51"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="51"/>
-      <c r="CF3" s="51"/>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="51"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="50"/>
+      <c r="CD3" s="50"/>
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
     </row>
     <row r="4" spans="1:86" s="9" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -8883,8 +8887,8 @@
       </c>
     </row>
     <row r="5" spans="1:86" s="9" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
@@ -9138,8 +9142,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="15">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:86">
+      <c r="A6" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -9230,8 +9234,8 @@
       <c r="CG6" s="33"/>
       <c r="CH6" s="33"/>
     </row>
-    <row r="7" spans="1:86" ht="15">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:86">
+      <c r="A7" s="46"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -9320,8 +9324,8 @@
       <c r="CG7" s="33"/>
       <c r="CH7" s="33"/>
     </row>
-    <row r="8" spans="1:86" ht="15">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:86">
+      <c r="A8" s="47"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -9410,8 +9414,8 @@
       <c r="CG8" s="33"/>
       <c r="CH8" s="33"/>
     </row>
-    <row r="9" spans="1:86" ht="15">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:86">
+      <c r="A9" s="45"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -9500,8 +9504,8 @@
       <c r="CG9" s="33"/>
       <c r="CH9" s="33"/>
     </row>
-    <row r="10" spans="1:86" ht="15">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:86">
+      <c r="A10" s="46"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -9590,8 +9594,8 @@
       <c r="CG10" s="33"/>
       <c r="CH10" s="33"/>
     </row>
-    <row r="11" spans="1:86" ht="15">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:86">
+      <c r="A11" s="47"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -9680,8 +9684,8 @@
       <c r="CG11" s="33"/>
       <c r="CH11" s="33"/>
     </row>
-    <row r="12" spans="1:86" ht="15">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:86">
+      <c r="A12" s="45"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -9770,8 +9774,8 @@
       <c r="CG12" s="33"/>
       <c r="CH12" s="33"/>
     </row>
-    <row r="13" spans="1:86" ht="15">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:86">
+      <c r="A13" s="46"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -9860,8 +9864,8 @@
       <c r="CG13" s="33"/>
       <c r="CH13" s="33"/>
     </row>
-    <row r="14" spans="1:86" ht="15">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:86">
+      <c r="A14" s="47"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -9950,8 +9954,8 @@
       <c r="CG14" s="33"/>
       <c r="CH14" s="33"/>
     </row>
-    <row r="15" spans="1:86" ht="15">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:86">
+      <c r="A15" s="45"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -10040,8 +10044,8 @@
       <c r="CG15" s="33"/>
       <c r="CH15" s="33"/>
     </row>
-    <row r="16" spans="1:86" ht="15">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:86">
+      <c r="A16" s="46"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -10130,8 +10134,8 @@
       <c r="CG16" s="33"/>
       <c r="CH16" s="33"/>
     </row>
-    <row r="17" spans="1:86" ht="15">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:86">
+      <c r="A17" s="47"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -10221,7 +10225,7 @@
       <c r="CH17" s="33"/>
     </row>
     <row r="18" spans="1:86">
-      <c r="A18" s="53"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -10311,7 +10315,7 @@
       <c r="CH18" s="33"/>
     </row>
     <row r="19" spans="1:86">
-      <c r="A19" s="54"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -10401,7 +10405,7 @@
       <c r="CH19" s="33"/>
     </row>
     <row r="20" spans="1:86">
-      <c r="A20" s="55"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -10491,7 +10495,7 @@
       <c r="CH20" s="33"/>
     </row>
     <row r="21" spans="1:86">
-      <c r="A21" s="53"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -10581,7 +10585,7 @@
       <c r="CH21" s="33"/>
     </row>
     <row r="22" spans="1:86">
-      <c r="A22" s="54"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -10671,7 +10675,7 @@
       <c r="CH22" s="33"/>
     </row>
     <row r="23" spans="1:86">
-      <c r="A23" s="55"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -10761,7 +10765,7 @@
       <c r="CH23" s="33"/>
     </row>
     <row r="24" spans="1:86">
-      <c r="A24" s="53"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -10851,7 +10855,7 @@
       <c r="CH24" s="33"/>
     </row>
     <row r="25" spans="1:86">
-      <c r="A25" s="54"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -10941,7 +10945,7 @@
       <c r="CH25" s="33"/>
     </row>
     <row r="26" spans="1:86">
-      <c r="A26" s="55"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -11031,7 +11035,7 @@
       <c r="CH26" s="33"/>
     </row>
     <row r="27" spans="1:86">
-      <c r="A27" s="53"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -11121,7 +11125,7 @@
       <c r="CH27" s="33"/>
     </row>
     <row r="28" spans="1:86">
-      <c r="A28" s="54"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -11211,7 +11215,7 @@
       <c r="CH28" s="33"/>
     </row>
     <row r="29" spans="1:86">
-      <c r="A29" s="55"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -11301,7 +11305,7 @@
       <c r="CH29" s="33"/>
     </row>
     <row r="30" spans="1:86">
-      <c r="A30" s="53"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -11391,7 +11395,7 @@
       <c r="CH30" s="33"/>
     </row>
     <row r="31" spans="1:86">
-      <c r="A31" s="54"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -11481,7 +11485,7 @@
       <c r="CH31" s="33"/>
     </row>
     <row r="32" spans="1:86">
-      <c r="A32" s="55"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -11571,7 +11575,7 @@
       <c r="CH32" s="33"/>
     </row>
     <row r="33" spans="1:86">
-      <c r="A33" s="53"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -11661,7 +11665,7 @@
       <c r="CH33" s="33"/>
     </row>
     <row r="34" spans="1:86">
-      <c r="A34" s="54"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -11751,7 +11755,7 @@
       <c r="CH34" s="33"/>
     </row>
     <row r="35" spans="1:86">
-      <c r="A35" s="55"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -11841,7 +11845,7 @@
       <c r="CH35" s="33"/>
     </row>
     <row r="36" spans="1:86">
-      <c r="A36" s="53"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -11931,7 +11935,7 @@
       <c r="CH36" s="33"/>
     </row>
     <row r="37" spans="1:86">
-      <c r="A37" s="54"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -12021,7 +12025,7 @@
       <c r="CH37" s="33"/>
     </row>
     <row r="38" spans="1:86">
-      <c r="A38" s="55"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -12111,7 +12115,7 @@
       <c r="CH38" s="33"/>
     </row>
     <row r="39" spans="1:86">
-      <c r="A39" s="53"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -12201,7 +12205,7 @@
       <c r="CH39" s="33"/>
     </row>
     <row r="40" spans="1:86">
-      <c r="A40" s="54"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -12291,7 +12295,7 @@
       <c r="CH40" s="33"/>
     </row>
     <row r="41" spans="1:86">
-      <c r="A41" s="55"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -12381,7 +12385,7 @@
       <c r="CH41" s="33"/>
     </row>
     <row r="42" spans="1:86">
-      <c r="A42" s="53"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -12471,7 +12475,7 @@
       <c r="CH42" s="33"/>
     </row>
     <row r="43" spans="1:86">
-      <c r="A43" s="54"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -12561,7 +12565,7 @@
       <c r="CH43" s="33"/>
     </row>
     <row r="44" spans="1:86">
-      <c r="A44" s="55"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -12651,7 +12655,7 @@
       <c r="CH44" s="33"/>
     </row>
     <row r="45" spans="1:86">
-      <c r="A45" s="53"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -12741,7 +12745,7 @@
       <c r="CH45" s="33"/>
     </row>
     <row r="46" spans="1:86">
-      <c r="A46" s="54"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -12831,7 +12835,7 @@
       <c r="CH46" s="33"/>
     </row>
     <row r="47" spans="1:86">
-      <c r="A47" s="55"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -12921,7 +12925,7 @@
       <c r="CH47" s="33"/>
     </row>
     <row r="48" spans="1:86">
-      <c r="A48" s="53"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -13011,7 +13015,7 @@
       <c r="CH48" s="33"/>
     </row>
     <row r="49" spans="1:86">
-      <c r="A49" s="54"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -13101,7 +13105,7 @@
       <c r="CH49" s="33"/>
     </row>
     <row r="50" spans="1:86">
-      <c r="A50" s="55"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -13191,7 +13195,7 @@
       <c r="CH50" s="33"/>
     </row>
     <row r="51" spans="1:86">
-      <c r="A51" s="53"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -13281,7 +13285,7 @@
       <c r="CH51" s="33"/>
     </row>
     <row r="52" spans="1:86">
-      <c r="A52" s="54"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -13371,7 +13375,7 @@
       <c r="CH52" s="33"/>
     </row>
     <row r="53" spans="1:86">
-      <c r="A53" s="55"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -13461,7 +13465,7 @@
       <c r="CH53" s="33"/>
     </row>
     <row r="54" spans="1:86">
-      <c r="A54" s="53"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -13551,7 +13555,7 @@
       <c r="CH54" s="33"/>
     </row>
     <row r="55" spans="1:86">
-      <c r="A55" s="54"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -13641,7 +13645,7 @@
       <c r="CH55" s="33"/>
     </row>
     <row r="56" spans="1:86">
-      <c r="A56" s="55"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -13731,7 +13735,7 @@
       <c r="CH56" s="33"/>
     </row>
     <row r="57" spans="1:86">
-      <c r="A57" s="53"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -13821,7 +13825,7 @@
       <c r="CH57" s="33"/>
     </row>
     <row r="58" spans="1:86">
-      <c r="A58" s="54"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -13911,7 +13915,7 @@
       <c r="CH58" s="33"/>
     </row>
     <row r="59" spans="1:86">
-      <c r="A59" s="55"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -14001,7 +14005,7 @@
       <c r="CH59" s="33"/>
     </row>
     <row r="60" spans="1:86">
-      <c r="A60" s="53"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -14091,7 +14095,7 @@
       <c r="CH60" s="33"/>
     </row>
     <row r="61" spans="1:86">
-      <c r="A61" s="54"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -14181,7 +14185,7 @@
       <c r="CH61" s="33"/>
     </row>
     <row r="62" spans="1:86">
-      <c r="A62" s="55"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -14272,22 +14276,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AL1"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="BW1:CH1"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -14300,13 +14295,22 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="AY3:BJ3"/>
+    <mergeCell ref="BK3:BV3"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -14321,14 +14325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CH62"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="9" customWidth="1"/>
@@ -14336,114 +14340,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="48" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="49" t="s">
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="50" t="s">
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="51" t="s">
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49"/>
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BX1" s="51"/>
-      <c r="BY1" s="51"/>
-      <c r="BZ1" s="51"/>
-      <c r="CA1" s="51"/>
-      <c r="CB1" s="51"/>
-      <c r="CC1" s="51"/>
-      <c r="CD1" s="51"/>
-      <c r="CE1" s="51"/>
-      <c r="CF1" s="51"/>
-      <c r="CG1" s="51"/>
-      <c r="CH1" s="51"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
     </row>
     <row r="2" spans="1:86">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="34">
         <v>2015</v>
       </c>
@@ -14698,110 +14702,110 @@
       </c>
     </row>
     <row r="3" spans="1:86" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="48" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="52" t="s">
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="49" t="s">
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="49"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="50" t="s">
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="50"/>
-      <c r="BU3" s="50"/>
-      <c r="BV3" s="50"/>
-      <c r="BW3" s="51" t="s">
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="49"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="51"/>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="51"/>
-      <c r="CC3" s="51"/>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="51"/>
-      <c r="CF3" s="51"/>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="51"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="50"/>
+      <c r="CD3" s="50"/>
+      <c r="CE3" s="50"/>
+      <c r="CF3" s="50"/>
+      <c r="CG3" s="50"/>
+      <c r="CH3" s="50"/>
     </row>
     <row r="4" spans="1:86" s="9" customFormat="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -15056,8 +15060,8 @@
       </c>
     </row>
     <row r="5" spans="1:86" s="9" customFormat="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
@@ -15311,8 +15315,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="15">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:86">
+      <c r="A6" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -15403,8 +15407,8 @@
       <c r="CG6" s="33"/>
       <c r="CH6" s="33"/>
     </row>
-    <row r="7" spans="1:86" ht="15">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:86">
+      <c r="A7" s="46"/>
       <c r="B7" s="31" t="s">
         <v>23</v>
       </c>
@@ -15493,8 +15497,8 @@
       <c r="CG7" s="33"/>
       <c r="CH7" s="33"/>
     </row>
-    <row r="8" spans="1:86" ht="15">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:86">
+      <c r="A8" s="47"/>
       <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
@@ -15583,8 +15587,8 @@
       <c r="CG8" s="33"/>
       <c r="CH8" s="33"/>
     </row>
-    <row r="9" spans="1:86" ht="15">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:86">
+      <c r="A9" s="45"/>
       <c r="B9" s="31" t="s">
         <v>22</v>
       </c>
@@ -15673,8 +15677,8 @@
       <c r="CG9" s="33"/>
       <c r="CH9" s="33"/>
     </row>
-    <row r="10" spans="1:86" ht="15">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:86">
+      <c r="A10" s="46"/>
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
@@ -15763,8 +15767,8 @@
       <c r="CG10" s="33"/>
       <c r="CH10" s="33"/>
     </row>
-    <row r="11" spans="1:86" ht="15">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:86">
+      <c r="A11" s="47"/>
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
@@ -15853,8 +15857,8 @@
       <c r="CG11" s="33"/>
       <c r="CH11" s="33"/>
     </row>
-    <row r="12" spans="1:86" ht="15">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:86">
+      <c r="A12" s="45"/>
       <c r="B12" s="31" t="s">
         <v>22</v>
       </c>
@@ -15943,8 +15947,8 @@
       <c r="CG12" s="33"/>
       <c r="CH12" s="33"/>
     </row>
-    <row r="13" spans="1:86" ht="15">
-      <c r="A13" s="54"/>
+    <row r="13" spans="1:86">
+      <c r="A13" s="46"/>
       <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
@@ -16033,8 +16037,8 @@
       <c r="CG13" s="33"/>
       <c r="CH13" s="33"/>
     </row>
-    <row r="14" spans="1:86" ht="15">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:86">
+      <c r="A14" s="47"/>
       <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
@@ -16123,8 +16127,8 @@
       <c r="CG14" s="33"/>
       <c r="CH14" s="33"/>
     </row>
-    <row r="15" spans="1:86" ht="15">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:86">
+      <c r="A15" s="45"/>
       <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
@@ -16213,8 +16217,8 @@
       <c r="CG15" s="33"/>
       <c r="CH15" s="33"/>
     </row>
-    <row r="16" spans="1:86" ht="15">
-      <c r="A16" s="54"/>
+    <row r="16" spans="1:86">
+      <c r="A16" s="46"/>
       <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
@@ -16303,8 +16307,8 @@
       <c r="CG16" s="33"/>
       <c r="CH16" s="33"/>
     </row>
-    <row r="17" spans="1:86" ht="15">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:86">
+      <c r="A17" s="47"/>
       <c r="B17" s="31" t="s">
         <v>24</v>
       </c>
@@ -16394,7 +16398,7 @@
       <c r="CH17" s="33"/>
     </row>
     <row r="18" spans="1:86">
-      <c r="A18" s="53"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
@@ -16484,7 +16488,7 @@
       <c r="CH18" s="33"/>
     </row>
     <row r="19" spans="1:86">
-      <c r="A19" s="54"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
@@ -16574,7 +16578,7 @@
       <c r="CH19" s="33"/>
     </row>
     <row r="20" spans="1:86">
-      <c r="A20" s="55"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
@@ -16664,7 +16668,7 @@
       <c r="CH20" s="33"/>
     </row>
     <row r="21" spans="1:86">
-      <c r="A21" s="53"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
@@ -16754,7 +16758,7 @@
       <c r="CH21" s="33"/>
     </row>
     <row r="22" spans="1:86">
-      <c r="A22" s="54"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
@@ -16844,7 +16848,7 @@
       <c r="CH22" s="33"/>
     </row>
     <row r="23" spans="1:86">
-      <c r="A23" s="55"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="31" t="s">
         <v>24</v>
       </c>
@@ -16934,7 +16938,7 @@
       <c r="CH23" s="33"/>
     </row>
     <row r="24" spans="1:86">
-      <c r="A24" s="53"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="31" t="s">
         <v>22</v>
       </c>
@@ -17024,7 +17028,7 @@
       <c r="CH24" s="33"/>
     </row>
     <row r="25" spans="1:86">
-      <c r="A25" s="54"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="31" t="s">
         <v>23</v>
       </c>
@@ -17114,7 +17118,7 @@
       <c r="CH25" s="33"/>
     </row>
     <row r="26" spans="1:86">
-      <c r="A26" s="55"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
@@ -17204,7 +17208,7 @@
       <c r="CH26" s="33"/>
     </row>
     <row r="27" spans="1:86">
-      <c r="A27" s="53"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="31" t="s">
         <v>22</v>
       </c>
@@ -17294,7 +17298,7 @@
       <c r="CH27" s="33"/>
     </row>
     <row r="28" spans="1:86">
-      <c r="A28" s="54"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
@@ -17384,7 +17388,7 @@
       <c r="CH28" s="33"/>
     </row>
     <row r="29" spans="1:86">
-      <c r="A29" s="55"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="31" t="s">
         <v>24</v>
       </c>
@@ -17474,7 +17478,7 @@
       <c r="CH29" s="33"/>
     </row>
     <row r="30" spans="1:86">
-      <c r="A30" s="53"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
@@ -17564,7 +17568,7 @@
       <c r="CH30" s="33"/>
     </row>
     <row r="31" spans="1:86">
-      <c r="A31" s="54"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
@@ -17654,7 +17658,7 @@
       <c r="CH31" s="33"/>
     </row>
     <row r="32" spans="1:86">
-      <c r="A32" s="55"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
@@ -17744,7 +17748,7 @@
       <c r="CH32" s="33"/>
     </row>
     <row r="33" spans="1:86">
-      <c r="A33" s="53"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
@@ -17834,7 +17838,7 @@
       <c r="CH33" s="33"/>
     </row>
     <row r="34" spans="1:86">
-      <c r="A34" s="54"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="31" t="s">
         <v>23</v>
       </c>
@@ -17924,7 +17928,7 @@
       <c r="CH34" s="33"/>
     </row>
     <row r="35" spans="1:86">
-      <c r="A35" s="55"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
@@ -18014,7 +18018,7 @@
       <c r="CH35" s="33"/>
     </row>
     <row r="36" spans="1:86">
-      <c r="A36" s="53"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="31" t="s">
         <v>22</v>
       </c>
@@ -18104,7 +18108,7 @@
       <c r="CH36" s="33"/>
     </row>
     <row r="37" spans="1:86">
-      <c r="A37" s="54"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="31" t="s">
         <v>23</v>
       </c>
@@ -18194,7 +18198,7 @@
       <c r="CH37" s="33"/>
     </row>
     <row r="38" spans="1:86">
-      <c r="A38" s="55"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
@@ -18284,7 +18288,7 @@
       <c r="CH38" s="33"/>
     </row>
     <row r="39" spans="1:86">
-      <c r="A39" s="53"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="31" t="s">
         <v>22</v>
       </c>
@@ -18374,7 +18378,7 @@
       <c r="CH39" s="33"/>
     </row>
     <row r="40" spans="1:86">
-      <c r="A40" s="54"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="31" t="s">
         <v>23</v>
       </c>
@@ -18464,7 +18468,7 @@
       <c r="CH40" s="33"/>
     </row>
     <row r="41" spans="1:86">
-      <c r="A41" s="55"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
@@ -18554,7 +18558,7 @@
       <c r="CH41" s="33"/>
     </row>
     <row r="42" spans="1:86">
-      <c r="A42" s="53"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="31" t="s">
         <v>22</v>
       </c>
@@ -18644,7 +18648,7 @@
       <c r="CH42" s="33"/>
     </row>
     <row r="43" spans="1:86">
-      <c r="A43" s="54"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="31" t="s">
         <v>23</v>
       </c>
@@ -18734,7 +18738,7 @@
       <c r="CH43" s="33"/>
     </row>
     <row r="44" spans="1:86">
-      <c r="A44" s="55"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="31" t="s">
         <v>24</v>
       </c>
@@ -18824,7 +18828,7 @@
       <c r="CH44" s="33"/>
     </row>
     <row r="45" spans="1:86">
-      <c r="A45" s="53"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="31" t="s">
         <v>22</v>
       </c>
@@ -18914,7 +18918,7 @@
       <c r="CH45" s="33"/>
     </row>
     <row r="46" spans="1:86">
-      <c r="A46" s="54"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="31" t="s">
         <v>23</v>
       </c>
@@ -19004,7 +19008,7 @@
       <c r="CH46" s="33"/>
     </row>
     <row r="47" spans="1:86">
-      <c r="A47" s="55"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="31" t="s">
         <v>24</v>
       </c>
@@ -19094,7 +19098,7 @@
       <c r="CH47" s="33"/>
     </row>
     <row r="48" spans="1:86">
-      <c r="A48" s="53"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="31" t="s">
         <v>22</v>
       </c>
@@ -19184,7 +19188,7 @@
       <c r="CH48" s="33"/>
     </row>
     <row r="49" spans="1:86">
-      <c r="A49" s="54"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
@@ -19274,7 +19278,7 @@
       <c r="CH49" s="33"/>
     </row>
     <row r="50" spans="1:86">
-      <c r="A50" s="55"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
@@ -19364,7 +19368,7 @@
       <c r="CH50" s="33"/>
     </row>
     <row r="51" spans="1:86">
-      <c r="A51" s="53"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="31" t="s">
         <v>22</v>
       </c>
@@ -19454,7 +19458,7 @@
       <c r="CH51" s="33"/>
     </row>
     <row r="52" spans="1:86">
-      <c r="A52" s="54"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="31" t="s">
         <v>23</v>
       </c>
@@ -19544,7 +19548,7 @@
       <c r="CH52" s="33"/>
     </row>
     <row r="53" spans="1:86">
-      <c r="A53" s="55"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="31" t="s">
         <v>24</v>
       </c>
@@ -19634,7 +19638,7 @@
       <c r="CH53" s="33"/>
     </row>
     <row r="54" spans="1:86">
-      <c r="A54" s="53"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="31" t="s">
         <v>22</v>
       </c>
@@ -19724,7 +19728,7 @@
       <c r="CH54" s="33"/>
     </row>
     <row r="55" spans="1:86">
-      <c r="A55" s="54"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="31" t="s">
         <v>23</v>
       </c>
@@ -19814,7 +19818,7 @@
       <c r="CH55" s="33"/>
     </row>
     <row r="56" spans="1:86">
-      <c r="A56" s="55"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="31" t="s">
         <v>24</v>
       </c>
@@ -19904,7 +19908,7 @@
       <c r="CH56" s="33"/>
     </row>
     <row r="57" spans="1:86">
-      <c r="A57" s="53"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
@@ -19994,7 +19998,7 @@
       <c r="CH57" s="33"/>
     </row>
     <row r="58" spans="1:86">
-      <c r="A58" s="54"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="31" t="s">
         <v>23</v>
       </c>
@@ -20084,7 +20088,7 @@
       <c r="CH58" s="33"/>
     </row>
     <row r="59" spans="1:86">
-      <c r="A59" s="55"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="31" t="s">
         <v>24</v>
       </c>
@@ -20174,7 +20178,7 @@
       <c r="CH59" s="33"/>
     </row>
     <row r="60" spans="1:86">
-      <c r="A60" s="53"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="31" t="s">
         <v>22</v>
       </c>
@@ -20264,7 +20268,7 @@
       <c r="CH60" s="33"/>
     </row>
     <row r="61" spans="1:86">
-      <c r="A61" s="54"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="31" t="s">
         <v>23</v>
       </c>
@@ -20354,7 +20358,7 @@
       <c r="CH61" s="33"/>
     </row>
     <row r="62" spans="1:86">
-      <c r="A62" s="55"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="31" t="s">
         <v>24</v>
       </c>
@@ -20445,22 +20449,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="AA1:AL1"/>
-    <mergeCell ref="AY1:BJ1"/>
-    <mergeCell ref="BK1:BV1"/>
-    <mergeCell ref="BW1:CH1"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
-    <mergeCell ref="BW3:CH3"/>
-    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -20473,13 +20468,22 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="AY3:BJ3"/>
+    <mergeCell ref="BK3:BV3"/>
+    <mergeCell ref="BW3:CH3"/>
+    <mergeCell ref="AM1:AX1"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="AA1:AL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
